--- a/POI分类说明 (自动保存的).xlsx
+++ b/POI分类说明 (自动保存的).xlsx
@@ -1576,9 +1576,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>ic_map_government1</t>
-  </si>
-  <si>
     <t>行政办公大厅</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1819,6 +1816,10 @@
   </si>
   <si>
     <t>ic_map_difangfengwei</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ic_map_government2</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -2281,82 +2282,28 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2374,7 +2321,70 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2387,15 +2397,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2780,78 +2781,78 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="44">
+      <c r="A3" s="74">
         <v>1</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="61">
+      <c r="D3" s="49">
         <v>3215</v>
       </c>
-      <c r="E3" s="62" t="s">
+      <c r="E3" s="58" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="45"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="63"/>
+      <c r="A4" s="71"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="59"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="45"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="63"/>
+      <c r="A5" s="71"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="59"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="45"/>
-      <c r="B6" s="49"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="63"/>
+      <c r="A6" s="71"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="59"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="45"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="63"/>
+      <c r="A7" s="71"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="59"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="45"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="63"/>
+      <c r="A8" s="71"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="59"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="46"/>
-      <c r="B9" s="50"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="64"/>
+      <c r="A9" s="72"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="47"/>
     </row>
     <row r="10" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="45">
+      <c r="A10" s="71">
         <v>2</v>
       </c>
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="52" t="s">
+      <c r="C10" s="65" t="s">
         <v>262</v>
       </c>
-      <c r="D10" s="53">
+      <c r="D10" s="50">
         <v>6280</v>
       </c>
-      <c r="E10" s="65" t="s">
+      <c r="E10" s="46" t="s">
         <v>9</v>
       </c>
       <c r="F10" s="37" t="s">
@@ -2865,11 +2866,11 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="45"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="63"/>
+      <c r="A11" s="71"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="59"/>
       <c r="F11" s="25" t="s">
         <v>285</v>
       </c>
@@ -2881,11 +2882,11 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.15">
-      <c r="A12" s="45"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="63"/>
+      <c r="A12" s="71"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="59"/>
       <c r="F12" s="38" t="s">
         <v>287</v>
       </c>
@@ -2897,11 +2898,11 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="45"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="63"/>
+      <c r="A13" s="71"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="59"/>
       <c r="F13" s="25" t="s">
         <v>269</v>
       </c>
@@ -2913,11 +2914,11 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="45"/>
-      <c r="B14" s="49"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="63"/>
+      <c r="A14" s="71"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="59"/>
       <c r="F14" s="25" t="s">
         <v>269</v>
       </c>
@@ -2929,11 +2930,11 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="45"/>
-      <c r="B15" s="49"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="63"/>
+      <c r="A15" s="71"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="59"/>
       <c r="F15" s="26" t="s">
         <v>269</v>
       </c>
@@ -2945,11 +2946,11 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="45"/>
-      <c r="B16" s="49"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="63"/>
+      <c r="A16" s="71"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="59"/>
       <c r="F16" s="25" t="s">
         <v>288</v>
       </c>
@@ -2961,11 +2962,11 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="45"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="63"/>
+      <c r="A17" s="71"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="59"/>
       <c r="F17" s="25" t="s">
         <v>288</v>
       </c>
@@ -2977,11 +2978,11 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="45"/>
-      <c r="B18" s="49"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="63"/>
+      <c r="A18" s="71"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="59"/>
       <c r="F18" s="25" t="s">
         <v>286</v>
       </c>
@@ -2993,11 +2994,11 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="45"/>
-      <c r="B19" s="49"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="63"/>
+      <c r="A19" s="71"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="59"/>
       <c r="F19" s="25" t="s">
         <v>286</v>
       </c>
@@ -3009,11 +3010,11 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="45"/>
-      <c r="B20" s="49"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="63"/>
+      <c r="A20" s="71"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="59"/>
       <c r="F20" s="25" t="s">
         <v>286</v>
       </c>
@@ -3025,11 +3026,11 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="45"/>
-      <c r="B21" s="49"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="63"/>
+      <c r="A21" s="71"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="59"/>
       <c r="F21" s="27" t="s">
         <v>292</v>
       </c>
@@ -3041,11 +3042,11 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="45"/>
-      <c r="B22" s="49"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="63"/>
+      <c r="A22" s="71"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="59"/>
       <c r="F22" s="26" t="s">
         <v>289</v>
       </c>
@@ -3057,11 +3058,11 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="45"/>
-      <c r="B23" s="49"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="63"/>
+      <c r="A23" s="71"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="59"/>
       <c r="F23" s="27" t="s">
         <v>288</v>
       </c>
@@ -3073,11 +3074,11 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="45"/>
-      <c r="B24" s="49"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="63"/>
+      <c r="A24" s="71"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="59"/>
       <c r="F24" s="25" t="s">
         <v>293</v>
       </c>
@@ -3089,11 +3090,11 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="45"/>
-      <c r="B25" s="49"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="63"/>
+      <c r="A25" s="71"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="59"/>
       <c r="F25" s="25" t="s">
         <v>290</v>
       </c>
@@ -3105,11 +3106,11 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="45"/>
-      <c r="B26" s="49"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="63"/>
+      <c r="A26" s="71"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="59"/>
       <c r="F26" s="25" t="s">
         <v>297</v>
       </c>
@@ -3121,11 +3122,11 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="46"/>
-      <c r="B27" s="50"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="64"/>
+      <c r="A27" s="72"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="47"/>
       <c r="F27" s="26" t="s">
         <v>291</v>
       </c>
@@ -3137,93 +3138,93 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="46">
+      <c r="A28" s="72">
         <v>3</v>
       </c>
-      <c r="B28" s="50" t="s">
+      <c r="B28" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="54">
+      <c r="C28" s="51">
         <v>200103</v>
       </c>
-      <c r="D28" s="54">
+      <c r="D28" s="51">
         <v>3339</v>
       </c>
-      <c r="E28" s="66" t="s">
+      <c r="E28" s="60" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="47"/>
-      <c r="B29" s="51"/>
+      <c r="A29" s="70"/>
+      <c r="B29" s="62"/>
       <c r="C29" s="57"/>
       <c r="D29" s="57"/>
-      <c r="E29" s="67"/>
+      <c r="E29" s="45"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="47"/>
-      <c r="B30" s="51"/>
+      <c r="A30" s="70"/>
+      <c r="B30" s="62"/>
       <c r="C30" s="57"/>
       <c r="D30" s="57"/>
-      <c r="E30" s="67"/>
+      <c r="E30" s="45"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="46">
+      <c r="A31" s="72">
         <v>4</v>
       </c>
-      <c r="B31" s="50" t="s">
+      <c r="B31" s="64" t="s">
         <v>254</v>
       </c>
-      <c r="C31" s="54">
+      <c r="C31" s="51">
         <v>160105</v>
       </c>
-      <c r="D31" s="54">
+      <c r="D31" s="51">
         <v>1133</v>
       </c>
-      <c r="E31" s="66" t="s">
+      <c r="E31" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="F31" s="61" t="s">
+      <c r="F31" s="49" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" s="47"/>
-      <c r="B32" s="51"/>
+      <c r="A32" s="70"/>
+      <c r="B32" s="62"/>
       <c r="C32" s="57"/>
       <c r="D32" s="57"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="53"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="50"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A33" s="47"/>
-      <c r="B33" s="51"/>
+      <c r="A33" s="70"/>
+      <c r="B33" s="62"/>
       <c r="C33" s="57"/>
       <c r="D33" s="57"/>
-      <c r="E33" s="67"/>
-      <c r="F33" s="53"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="50"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A34" s="47"/>
-      <c r="B34" s="51"/>
+      <c r="A34" s="70"/>
+      <c r="B34" s="62"/>
       <c r="C34" s="57"/>
       <c r="D34" s="57"/>
-      <c r="E34" s="67"/>
-      <c r="F34" s="53"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="50"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A35" s="47"/>
-      <c r="B35" s="51"/>
+      <c r="A35" s="70"/>
+      <c r="B35" s="62"/>
       <c r="C35" s="57"/>
       <c r="D35" s="57"/>
-      <c r="E35" s="67"/>
-      <c r="F35" s="54"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="51"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A36" s="47">
+      <c r="A36" s="70">
         <v>5</v>
       </c>
-      <c r="B36" s="51" t="s">
+      <c r="B36" s="62" t="s">
         <v>12</v>
       </c>
       <c r="C36" s="57">
@@ -3232,36 +3233,36 @@
       <c r="D36" s="57">
         <v>11441</v>
       </c>
-      <c r="E36" s="68" t="s">
+      <c r="E36" s="44" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A37" s="47"/>
-      <c r="B37" s="51"/>
+      <c r="A37" s="70"/>
+      <c r="B37" s="62"/>
       <c r="C37" s="57"/>
       <c r="D37" s="57"/>
-      <c r="E37" s="67"/>
+      <c r="E37" s="45"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A38" s="47"/>
-      <c r="B38" s="51"/>
+      <c r="A38" s="70"/>
+      <c r="B38" s="62"/>
       <c r="C38" s="57"/>
       <c r="D38" s="57"/>
-      <c r="E38" s="67"/>
+      <c r="E38" s="45"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A39" s="47"/>
-      <c r="B39" s="51"/>
+      <c r="A39" s="70"/>
+      <c r="B39" s="62"/>
       <c r="C39" s="57"/>
       <c r="D39" s="57"/>
-      <c r="E39" s="67"/>
+      <c r="E39" s="45"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A40" s="47">
+      <c r="A40" s="70">
         <v>6</v>
       </c>
-      <c r="B40" s="51" t="s">
+      <c r="B40" s="62" t="s">
         <v>14</v>
       </c>
       <c r="C40" s="57">
@@ -3270,98 +3271,98 @@
       <c r="D40" s="57">
         <v>3343</v>
       </c>
-      <c r="E40" s="68" t="s">
+      <c r="E40" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="F40" s="61" t="s">
+      <c r="F40" s="49" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A41" s="47"/>
-      <c r="B41" s="51"/>
+      <c r="A41" s="70"/>
+      <c r="B41" s="62"/>
       <c r="C41" s="57"/>
       <c r="D41" s="57"/>
-      <c r="E41" s="67"/>
-      <c r="F41" s="53"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="50"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A42" s="47"/>
-      <c r="B42" s="51"/>
+      <c r="A42" s="70"/>
+      <c r="B42" s="62"/>
       <c r="C42" s="57"/>
       <c r="D42" s="57"/>
-      <c r="E42" s="67"/>
-      <c r="F42" s="53"/>
+      <c r="E42" s="45"/>
+      <c r="F42" s="50"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A43" s="47"/>
-      <c r="B43" s="51"/>
+      <c r="A43" s="70"/>
+      <c r="B43" s="62"/>
       <c r="C43" s="57"/>
       <c r="D43" s="57"/>
-      <c r="E43" s="67"/>
-      <c r="F43" s="53"/>
+      <c r="E43" s="45"/>
+      <c r="F43" s="50"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A44" s="47"/>
-      <c r="B44" s="51"/>
+      <c r="A44" s="70"/>
+      <c r="B44" s="62"/>
       <c r="C44" s="57"/>
       <c r="D44" s="57"/>
-      <c r="E44" s="67"/>
-      <c r="F44" s="54"/>
+      <c r="E44" s="45"/>
+      <c r="F44" s="51"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A45" s="47">
+      <c r="A45" s="70">
         <v>7</v>
       </c>
-      <c r="B45" s="51" t="s">
+      <c r="B45" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="C45" s="58" t="s">
+      <c r="C45" s="61" t="s">
         <v>17</v>
       </c>
       <c r="D45" s="57">
         <v>1547</v>
       </c>
-      <c r="E45" s="68" t="s">
+      <c r="E45" s="44" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A46" s="47"/>
-      <c r="B46" s="51"/>
+      <c r="A46" s="70"/>
+      <c r="B46" s="62"/>
       <c r="C46" s="57"/>
       <c r="D46" s="57"/>
-      <c r="E46" s="67"/>
+      <c r="E46" s="45"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A47" s="47">
+      <c r="A47" s="70">
         <v>8</v>
       </c>
-      <c r="B47" s="51" t="s">
+      <c r="B47" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="C47" s="58" t="s">
+      <c r="C47" s="61" t="s">
         <v>20</v>
       </c>
       <c r="D47" s="57">
         <v>240</v>
       </c>
-      <c r="E47" s="67">
+      <c r="E47" s="45">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A48" s="47"/>
-      <c r="B48" s="51"/>
+      <c r="A48" s="70"/>
+      <c r="B48" s="62"/>
       <c r="C48" s="57"/>
       <c r="D48" s="57"/>
-      <c r="E48" s="67"/>
+      <c r="E48" s="45"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A49" s="47">
+      <c r="A49" s="70">
         <v>9</v>
       </c>
-      <c r="B49" s="51" t="s">
+      <c r="B49" s="62" t="s">
         <v>21</v>
       </c>
       <c r="C49" s="57">
@@ -3370,22 +3371,22 @@
       <c r="D49" s="57">
         <v>1085</v>
       </c>
-      <c r="E49" s="68" t="s">
+      <c r="E49" s="44" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A50" s="47"/>
-      <c r="B50" s="51"/>
+      <c r="A50" s="70"/>
+      <c r="B50" s="62"/>
       <c r="C50" s="57"/>
       <c r="D50" s="57"/>
-      <c r="E50" s="67"/>
+      <c r="E50" s="45"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A51" s="47">
+      <c r="A51" s="70">
         <v>10</v>
       </c>
-      <c r="B51" s="51" t="s">
+      <c r="B51" s="62" t="s">
         <v>22</v>
       </c>
       <c r="C51" s="57">
@@ -3394,16 +3395,16 @@
       <c r="D51" s="57">
         <v>1034</v>
       </c>
-      <c r="E51" s="68" t="s">
+      <c r="E51" s="44" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A52" s="47"/>
-      <c r="B52" s="51"/>
+      <c r="A52" s="70"/>
+      <c r="B52" s="62"/>
       <c r="C52" s="57"/>
       <c r="D52" s="57"/>
-      <c r="E52" s="67"/>
+      <c r="E52" s="45"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" s="20">
@@ -3423,62 +3424,62 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A54" s="47">
+      <c r="A54" s="70">
         <v>12</v>
       </c>
-      <c r="B54" s="51" t="s">
+      <c r="B54" s="62" t="s">
         <v>258</v>
       </c>
-      <c r="C54" s="58" t="s">
+      <c r="C54" s="61" t="s">
         <v>300</v>
       </c>
       <c r="D54" s="57">
         <v>1950</v>
       </c>
-      <c r="E54" s="58" t="s">
+      <c r="E54" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="F54" s="69" t="s">
+      <c r="F54" s="48" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A55" s="47"/>
-      <c r="B55" s="51"/>
+      <c r="A55" s="70"/>
+      <c r="B55" s="62"/>
       <c r="C55" s="57"/>
       <c r="D55" s="57"/>
       <c r="E55" s="57"/>
-      <c r="F55" s="69"/>
+      <c r="F55" s="48"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A56" s="47"/>
-      <c r="B56" s="51"/>
+      <c r="A56" s="70"/>
+      <c r="B56" s="62"/>
       <c r="C56" s="57"/>
       <c r="D56" s="57"/>
       <c r="E56" s="57"/>
-      <c r="F56" s="69"/>
+      <c r="F56" s="48"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A57" s="47"/>
-      <c r="B57" s="51"/>
+      <c r="A57" s="70"/>
+      <c r="B57" s="62"/>
       <c r="C57" s="57"/>
       <c r="D57" s="57"/>
       <c r="E57" s="57"/>
-      <c r="F57" s="69"/>
+      <c r="F57" s="48"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A58" s="47"/>
-      <c r="B58" s="51"/>
+      <c r="A58" s="70"/>
+      <c r="B58" s="62"/>
       <c r="C58" s="57"/>
       <c r="D58" s="57"/>
       <c r="E58" s="57"/>
-      <c r="F58" s="69"/>
+      <c r="F58" s="48"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A59" s="47">
+      <c r="A59" s="70">
         <v>13</v>
       </c>
-      <c r="B59" s="51" t="s">
+      <c r="B59" s="62" t="s">
         <v>26</v>
       </c>
       <c r="C59" s="57">
@@ -3487,36 +3488,36 @@
       <c r="D59" s="57">
         <v>997</v>
       </c>
-      <c r="E59" s="58" t="s">
+      <c r="E59" s="61" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A60" s="47"/>
-      <c r="B60" s="51"/>
+      <c r="A60" s="70"/>
+      <c r="B60" s="62"/>
       <c r="C60" s="57"/>
       <c r="D60" s="57"/>
       <c r="E60" s="57"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A61" s="47"/>
-      <c r="B61" s="51"/>
+      <c r="A61" s="70"/>
+      <c r="B61" s="62"/>
       <c r="C61" s="57"/>
       <c r="D61" s="57"/>
       <c r="E61" s="57"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A62" s="47"/>
-      <c r="B62" s="51"/>
+      <c r="A62" s="70"/>
+      <c r="B62" s="62"/>
       <c r="C62" s="57"/>
       <c r="D62" s="57"/>
       <c r="E62" s="57"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A63" s="47">
+      <c r="A63" s="70">
         <v>14</v>
       </c>
-      <c r="B63" s="51" t="s">
+      <c r="B63" s="62" t="s">
         <v>27</v>
       </c>
       <c r="C63" s="57">
@@ -3525,23 +3526,23 @@
       <c r="D63" s="57">
         <v>1000</v>
       </c>
-      <c r="E63" s="68" t="s">
+      <c r="E63" s="44" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A64" s="47"/>
-      <c r="B64" s="51"/>
+      <c r="A64" s="70"/>
+      <c r="B64" s="62"/>
       <c r="C64" s="57"/>
       <c r="D64" s="57"/>
-      <c r="E64" s="67"/>
+      <c r="E64" s="45"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A65" s="47"/>
-      <c r="B65" s="51"/>
+      <c r="A65" s="70"/>
+      <c r="B65" s="62"/>
       <c r="C65" s="57"/>
       <c r="D65" s="57"/>
-      <c r="E65" s="67"/>
+      <c r="E65" s="45"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" s="20">
@@ -3581,48 +3582,48 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A68" s="47">
+      <c r="A68" s="70">
         <v>17</v>
       </c>
-      <c r="B68" s="51" t="s">
+      <c r="B68" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="C68" s="58" t="s">
+      <c r="C68" s="61" t="s">
         <v>31</v>
       </c>
       <c r="D68" s="57">
         <v>10699</v>
       </c>
-      <c r="E68" s="68" t="s">
+      <c r="E68" s="44" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A69" s="47"/>
-      <c r="B69" s="51"/>
+      <c r="A69" s="70"/>
+      <c r="B69" s="62"/>
       <c r="C69" s="57"/>
       <c r="D69" s="57"/>
-      <c r="E69" s="67"/>
+      <c r="E69" s="45"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A70" s="47"/>
-      <c r="B70" s="51"/>
+      <c r="A70" s="70"/>
+      <c r="B70" s="62"/>
       <c r="C70" s="57"/>
       <c r="D70" s="57"/>
-      <c r="E70" s="67"/>
+      <c r="E70" s="45"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A71" s="47"/>
-      <c r="B71" s="51"/>
+      <c r="A71" s="70"/>
+      <c r="B71" s="62"/>
       <c r="C71" s="57"/>
       <c r="D71" s="57"/>
-      <c r="E71" s="67"/>
+      <c r="E71" s="45"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A72" s="47">
+      <c r="A72" s="70">
         <v>18</v>
       </c>
-      <c r="B72" s="51" t="s">
+      <c r="B72" s="62" t="s">
         <v>32</v>
       </c>
       <c r="C72" s="57">
@@ -3631,16 +3632,16 @@
       <c r="D72" s="57">
         <v>2865</v>
       </c>
-      <c r="E72" s="68" t="s">
+      <c r="E72" s="44" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A73" s="47"/>
-      <c r="B73" s="51"/>
+      <c r="A73" s="70"/>
+      <c r="B73" s="62"/>
       <c r="C73" s="57"/>
       <c r="D73" s="57"/>
-      <c r="E73" s="67"/>
+      <c r="E73" s="45"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A74" s="20">
@@ -3660,10 +3661,10 @@
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A75" s="47">
+      <c r="A75" s="70">
         <v>20</v>
       </c>
-      <c r="B75" s="51" t="s">
+      <c r="B75" s="62" t="s">
         <v>34</v>
       </c>
       <c r="C75" s="57">
@@ -3672,29 +3673,29 @@
       <c r="D75" s="57">
         <v>7807</v>
       </c>
-      <c r="E75" s="68" t="s">
+      <c r="E75" s="44" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A76" s="47"/>
-      <c r="B76" s="51"/>
+      <c r="A76" s="70"/>
+      <c r="B76" s="62"/>
       <c r="C76" s="57"/>
       <c r="D76" s="57"/>
-      <c r="E76" s="67"/>
+      <c r="E76" s="45"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A77" s="47"/>
-      <c r="B77" s="51"/>
+      <c r="A77" s="70"/>
+      <c r="B77" s="62"/>
       <c r="C77" s="57"/>
       <c r="D77" s="57"/>
-      <c r="E77" s="67"/>
+      <c r="E77" s="45"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A78" s="47">
+      <c r="A78" s="70">
         <v>21</v>
       </c>
-      <c r="B78" s="51" t="s">
+      <c r="B78" s="62" t="s">
         <v>35</v>
       </c>
       <c r="C78" s="57">
@@ -3703,71 +3704,71 @@
       <c r="D78" s="57">
         <v>2461</v>
       </c>
-      <c r="E78" s="68" t="s">
+      <c r="E78" s="44" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A79" s="47"/>
-      <c r="B79" s="51"/>
+      <c r="A79" s="70"/>
+      <c r="B79" s="62"/>
       <c r="C79" s="57"/>
       <c r="D79" s="57"/>
-      <c r="E79" s="67"/>
+      <c r="E79" s="45"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A80" s="47">
+      <c r="A80" s="70">
         <v>22</v>
       </c>
-      <c r="B80" s="51" t="s">
+      <c r="B80" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="C80" s="52" t="s">
+      <c r="C80" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="D80" s="61">
+      <c r="D80" s="49">
         <v>751</v>
       </c>
-      <c r="E80" s="62" t="s">
+      <c r="E80" s="58" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A81" s="47"/>
-      <c r="B81" s="51"/>
-      <c r="C81" s="56"/>
-      <c r="D81" s="54"/>
-      <c r="E81" s="66"/>
+      <c r="A81" s="70"/>
+      <c r="B81" s="62"/>
+      <c r="C81" s="67"/>
+      <c r="D81" s="51"/>
+      <c r="E81" s="60"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A82" s="47">
+      <c r="A82" s="70">
         <v>23</v>
       </c>
-      <c r="B82" s="51" t="s">
+      <c r="B82" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="C82" s="58" t="s">
+      <c r="C82" s="61" t="s">
         <v>39</v>
       </c>
       <c r="D82" s="57">
         <v>6471</v>
       </c>
-      <c r="E82" s="68" t="s">
+      <c r="E82" s="44" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A83" s="47"/>
-      <c r="B83" s="51"/>
+      <c r="A83" s="70"/>
+      <c r="B83" s="62"/>
       <c r="C83" s="57"/>
       <c r="D83" s="57"/>
-      <c r="E83" s="67"/>
+      <c r="E83" s="45"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A84" s="47"/>
-      <c r="B84" s="51"/>
+      <c r="A84" s="70"/>
+      <c r="B84" s="62"/>
       <c r="C84" s="57"/>
       <c r="D84" s="57"/>
-      <c r="E84" s="67"/>
+      <c r="E84" s="45"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A85" s="20">
@@ -3821,58 +3822,58 @@
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A88" s="47">
+      <c r="A88" s="70">
         <v>27</v>
       </c>
-      <c r="B88" s="51" t="s">
+      <c r="B88" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="C88" s="58" t="s">
+      <c r="C88" s="61" t="s">
         <v>44</v>
       </c>
       <c r="D88" s="57">
         <v>1049</v>
       </c>
-      <c r="E88" s="68" t="s">
+      <c r="E88" s="44" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A89" s="47"/>
-      <c r="B89" s="51"/>
+      <c r="A89" s="70"/>
+      <c r="B89" s="62"/>
       <c r="C89" s="57"/>
       <c r="D89" s="57"/>
-      <c r="E89" s="67"/>
+      <c r="E89" s="45"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A90" s="47">
+      <c r="A90" s="70">
         <v>28</v>
       </c>
-      <c r="B90" s="51" t="s">
+      <c r="B90" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="C90" s="59" t="s">
+      <c r="C90" s="68" t="s">
         <v>46</v>
       </c>
       <c r="D90" s="57">
         <v>18</v>
       </c>
-      <c r="E90" s="67">
+      <c r="E90" s="45">
         <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A91" s="47"/>
-      <c r="B91" s="51"/>
-      <c r="C91" s="60"/>
+      <c r="A91" s="70"/>
+      <c r="B91" s="62"/>
+      <c r="C91" s="69"/>
       <c r="D91" s="57"/>
-      <c r="E91" s="67"/>
+      <c r="E91" s="45"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A92" s="47">
+      <c r="A92" s="70">
         <v>29</v>
       </c>
-      <c r="B92" s="51" t="s">
+      <c r="B92" s="62" t="s">
         <v>47</v>
       </c>
       <c r="C92" s="57">
@@ -3881,26 +3882,26 @@
       <c r="D92" s="57">
         <v>1237</v>
       </c>
-      <c r="E92" s="68" t="s">
+      <c r="E92" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="F92" s="61" t="s">
+      <c r="F92" s="49" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A93" s="47"/>
-      <c r="B93" s="51"/>
+      <c r="A93" s="70"/>
+      <c r="B93" s="62"/>
       <c r="C93" s="57"/>
       <c r="D93" s="57"/>
-      <c r="E93" s="67"/>
-      <c r="F93" s="54"/>
+      <c r="E93" s="45"/>
+      <c r="F93" s="51"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A94" s="47">
+      <c r="A94" s="70">
         <v>30</v>
       </c>
-      <c r="B94" s="51" t="s">
+      <c r="B94" s="62" t="s">
         <v>48</v>
       </c>
       <c r="C94" s="57">
@@ -3909,95 +3910,95 @@
       <c r="D94" s="57">
         <v>32577</v>
       </c>
-      <c r="E94" s="68" t="s">
+      <c r="E94" s="44" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A95" s="47"/>
-      <c r="B95" s="51"/>
+      <c r="A95" s="70"/>
+      <c r="B95" s="62"/>
       <c r="C95" s="57"/>
       <c r="D95" s="57"/>
-      <c r="E95" s="67"/>
+      <c r="E95" s="45"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A96" s="47"/>
-      <c r="B96" s="51"/>
+      <c r="A96" s="70"/>
+      <c r="B96" s="62"/>
       <c r="C96" s="57"/>
       <c r="D96" s="57"/>
-      <c r="E96" s="67"/>
+      <c r="E96" s="45"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A97" s="47"/>
-      <c r="B97" s="51"/>
+      <c r="A97" s="70"/>
+      <c r="B97" s="62"/>
       <c r="C97" s="57"/>
       <c r="D97" s="57"/>
-      <c r="E97" s="67"/>
+      <c r="E97" s="45"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A98" s="47"/>
-      <c r="B98" s="51"/>
+      <c r="A98" s="70"/>
+      <c r="B98" s="62"/>
       <c r="C98" s="57"/>
       <c r="D98" s="57"/>
-      <c r="E98" s="67"/>
+      <c r="E98" s="45"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A99" s="47">
+      <c r="A99" s="70">
         <v>31</v>
       </c>
-      <c r="B99" s="51" t="s">
+      <c r="B99" s="62" t="s">
         <v>303</v>
       </c>
-      <c r="C99" s="58" t="s">
+      <c r="C99" s="61" t="s">
         <v>302</v>
       </c>
       <c r="D99" s="57">
         <v>14522</v>
       </c>
-      <c r="E99" s="68" t="s">
+      <c r="E99" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="F99" s="61" t="s">
+      <c r="F99" s="49" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A100" s="47"/>
-      <c r="B100" s="51"/>
+      <c r="A100" s="70"/>
+      <c r="B100" s="62"/>
       <c r="C100" s="57"/>
       <c r="D100" s="57"/>
-      <c r="E100" s="67"/>
-      <c r="F100" s="53"/>
+      <c r="E100" s="45"/>
+      <c r="F100" s="50"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A101" s="47"/>
-      <c r="B101" s="51"/>
+      <c r="A101" s="70"/>
+      <c r="B101" s="62"/>
       <c r="C101" s="57"/>
       <c r="D101" s="57"/>
-      <c r="E101" s="67"/>
-      <c r="F101" s="53"/>
+      <c r="E101" s="45"/>
+      <c r="F101" s="50"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A102" s="47"/>
-      <c r="B102" s="51"/>
+      <c r="A102" s="70"/>
+      <c r="B102" s="62"/>
       <c r="C102" s="57"/>
       <c r="D102" s="57"/>
-      <c r="E102" s="67"/>
-      <c r="F102" s="53"/>
+      <c r="E102" s="45"/>
+      <c r="F102" s="50"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A103" s="47"/>
-      <c r="B103" s="51"/>
+      <c r="A103" s="70"/>
+      <c r="B103" s="62"/>
       <c r="C103" s="57"/>
       <c r="D103" s="57"/>
-      <c r="E103" s="67"/>
-      <c r="F103" s="54"/>
+      <c r="E103" s="45"/>
+      <c r="F103" s="51"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A104" s="47">
+      <c r="A104" s="70">
         <v>32</v>
       </c>
-      <c r="B104" s="51" t="s">
+      <c r="B104" s="62" t="s">
         <v>50</v>
       </c>
       <c r="C104" s="57">
@@ -4006,29 +4007,29 @@
       <c r="D104" s="57">
         <v>744</v>
       </c>
-      <c r="E104" s="68" t="s">
+      <c r="E104" s="44" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A105" s="47"/>
-      <c r="B105" s="51"/>
+      <c r="A105" s="70"/>
+      <c r="B105" s="62"/>
       <c r="C105" s="57"/>
       <c r="D105" s="57"/>
-      <c r="E105" s="67"/>
+      <c r="E105" s="45"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A106" s="47"/>
-      <c r="B106" s="51"/>
+      <c r="A106" s="70"/>
+      <c r="B106" s="62"/>
       <c r="C106" s="57"/>
       <c r="D106" s="57"/>
-      <c r="E106" s="67"/>
+      <c r="E106" s="45"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A107" s="47">
+      <c r="A107" s="70">
         <v>33</v>
       </c>
-      <c r="B107" s="51" t="s">
+      <c r="B107" s="62" t="s">
         <v>304</v>
       </c>
       <c r="C107" s="57">
@@ -4037,81 +4038,81 @@
       <c r="D107" s="57">
         <v>22074</v>
       </c>
-      <c r="E107" s="68" t="s">
+      <c r="E107" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="F107" s="69" t="s">
+      <c r="F107" s="48" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A108" s="47"/>
-      <c r="B108" s="51"/>
+      <c r="A108" s="70"/>
+      <c r="B108" s="62"/>
       <c r="C108" s="57"/>
       <c r="D108" s="57"/>
-      <c r="E108" s="67"/>
-      <c r="F108" s="69"/>
+      <c r="E108" s="45"/>
+      <c r="F108" s="48"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A109" s="47"/>
-      <c r="B109" s="51"/>
+      <c r="A109" s="70"/>
+      <c r="B109" s="62"/>
       <c r="C109" s="57"/>
       <c r="D109" s="57"/>
-      <c r="E109" s="67"/>
-      <c r="F109" s="69"/>
+      <c r="E109" s="45"/>
+      <c r="F109" s="48"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A110" s="47"/>
-      <c r="B110" s="51"/>
+      <c r="A110" s="70"/>
+      <c r="B110" s="62"/>
       <c r="C110" s="57"/>
       <c r="D110" s="57"/>
-      <c r="E110" s="67"/>
-      <c r="F110" s="69"/>
+      <c r="E110" s="45"/>
+      <c r="F110" s="48"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A111" s="47"/>
-      <c r="B111" s="51"/>
+      <c r="A111" s="70"/>
+      <c r="B111" s="62"/>
       <c r="C111" s="57"/>
       <c r="D111" s="57"/>
-      <c r="E111" s="67"/>
-      <c r="F111" s="69"/>
+      <c r="E111" s="45"/>
+      <c r="F111" s="48"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A112" s="47">
+      <c r="A112" s="70">
         <v>34</v>
       </c>
-      <c r="B112" s="51" t="s">
+      <c r="B112" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="C112" s="58" t="s">
+      <c r="C112" s="61" t="s">
         <v>53</v>
       </c>
       <c r="D112" s="57">
         <v>1611</v>
       </c>
-      <c r="E112" s="68" t="s">
+      <c r="E112" s="44" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A113" s="47"/>
-      <c r="B113" s="51"/>
+      <c r="A113" s="70"/>
+      <c r="B113" s="62"/>
       <c r="C113" s="57"/>
       <c r="D113" s="57"/>
-      <c r="E113" s="67"/>
+      <c r="E113" s="45"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A114" s="47"/>
-      <c r="B114" s="51"/>
+      <c r="A114" s="70"/>
+      <c r="B114" s="62"/>
       <c r="C114" s="57"/>
       <c r="D114" s="57"/>
-      <c r="E114" s="67"/>
+      <c r="E114" s="45"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A115" s="47">
+      <c r="A115" s="70">
         <v>35</v>
       </c>
-      <c r="B115" s="51" t="s">
+      <c r="B115" s="62" t="s">
         <v>306</v>
       </c>
       <c r="C115" s="57">
@@ -4120,157 +4121,259 @@
       <c r="D115" s="57">
         <v>14691</v>
       </c>
-      <c r="E115" s="70" t="s">
+      <c r="E115" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="F115" s="72" t="s">
+      <c r="F115" s="54" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A116" s="47"/>
-      <c r="B116" s="51"/>
+      <c r="A116" s="70"/>
+      <c r="B116" s="62"/>
       <c r="C116" s="57"/>
       <c r="D116" s="57"/>
-      <c r="E116" s="71"/>
-      <c r="F116" s="73"/>
+      <c r="E116" s="53"/>
+      <c r="F116" s="55"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A117" s="47"/>
-      <c r="B117" s="51"/>
+      <c r="A117" s="70"/>
+      <c r="B117" s="62"/>
       <c r="C117" s="57"/>
       <c r="D117" s="57"/>
-      <c r="E117" s="71"/>
-      <c r="F117" s="73"/>
+      <c r="E117" s="53"/>
+      <c r="F117" s="55"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A118" s="47"/>
-      <c r="B118" s="51"/>
+      <c r="A118" s="70"/>
+      <c r="B118" s="62"/>
       <c r="C118" s="57"/>
       <c r="D118" s="57"/>
-      <c r="E118" s="71"/>
-      <c r="F118" s="74"/>
+      <c r="E118" s="53"/>
+      <c r="F118" s="56"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A119" s="47">
+      <c r="A119" s="70">
         <v>36</v>
       </c>
-      <c r="B119" s="51" t="s">
+      <c r="B119" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="C119" s="58" t="s">
+      <c r="C119" s="61" t="s">
         <v>56</v>
       </c>
       <c r="D119" s="57">
         <v>26779</v>
       </c>
-      <c r="E119" s="68" t="s">
+      <c r="E119" s="44" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A120" s="47"/>
-      <c r="B120" s="51"/>
+      <c r="A120" s="70"/>
+      <c r="B120" s="62"/>
       <c r="C120" s="57"/>
       <c r="D120" s="57"/>
-      <c r="E120" s="67"/>
+      <c r="E120" s="45"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A121" s="47"/>
-      <c r="B121" s="51"/>
+      <c r="A121" s="70"/>
+      <c r="B121" s="62"/>
       <c r="C121" s="57"/>
       <c r="D121" s="57"/>
-      <c r="E121" s="67"/>
+      <c r="E121" s="45"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A122" s="47"/>
-      <c r="B122" s="51"/>
+      <c r="A122" s="70"/>
+      <c r="B122" s="62"/>
       <c r="C122" s="57"/>
       <c r="D122" s="57"/>
-      <c r="E122" s="67"/>
+      <c r="E122" s="45"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A123" s="47"/>
-      <c r="B123" s="51"/>
+      <c r="A123" s="70"/>
+      <c r="B123" s="62"/>
       <c r="C123" s="57"/>
       <c r="D123" s="57"/>
-      <c r="E123" s="67"/>
+      <c r="E123" s="45"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A124" s="47">
+      <c r="A124" s="70">
         <v>37</v>
       </c>
-      <c r="B124" s="51" t="s">
+      <c r="B124" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="C124" s="58" t="s">
+      <c r="C124" s="61" t="s">
         <v>58</v>
       </c>
       <c r="D124" s="57">
         <v>5400</v>
       </c>
-      <c r="E124" s="68" t="s">
+      <c r="E124" s="44" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A125" s="47"/>
-      <c r="B125" s="51"/>
+      <c r="A125" s="70"/>
+      <c r="B125" s="62"/>
       <c r="C125" s="57"/>
       <c r="D125" s="57"/>
-      <c r="E125" s="67"/>
+      <c r="E125" s="45"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A126" s="47"/>
-      <c r="B126" s="51"/>
+      <c r="A126" s="70"/>
+      <c r="B126" s="62"/>
       <c r="C126" s="57"/>
       <c r="D126" s="57"/>
-      <c r="E126" s="67"/>
+      <c r="E126" s="45"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A127" s="45">
+      <c r="A127" s="71">
         <v>38</v>
       </c>
-      <c r="B127" s="49" t="s">
+      <c r="B127" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="C127" s="53">
+      <c r="C127" s="50">
         <v>170101</v>
       </c>
-      <c r="D127" s="53">
+      <c r="D127" s="50">
         <v>916</v>
       </c>
-      <c r="E127" s="65" t="s">
+      <c r="E127" s="46" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A128" s="46"/>
-      <c r="B128" s="50"/>
-      <c r="C128" s="54"/>
-      <c r="D128" s="54"/>
-      <c r="E128" s="64"/>
+      <c r="A128" s="72"/>
+      <c r="B128" s="64"/>
+      <c r="C128" s="51"/>
+      <c r="D128" s="51"/>
+      <c r="E128" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="162">
-    <mergeCell ref="E124:E126"/>
-    <mergeCell ref="E127:E128"/>
-    <mergeCell ref="F54:F58"/>
-    <mergeCell ref="F31:F35"/>
-    <mergeCell ref="F40:F44"/>
-    <mergeCell ref="F92:F93"/>
-    <mergeCell ref="F99:F103"/>
-    <mergeCell ref="F107:F111"/>
-    <mergeCell ref="E90:E91"/>
-    <mergeCell ref="E92:E93"/>
-    <mergeCell ref="E94:E98"/>
-    <mergeCell ref="E99:E103"/>
-    <mergeCell ref="E104:E106"/>
-    <mergeCell ref="E107:E111"/>
-    <mergeCell ref="E112:E114"/>
-    <mergeCell ref="E115:E118"/>
-    <mergeCell ref="E119:E123"/>
-    <mergeCell ref="F115:F118"/>
+    <mergeCell ref="A3:A9"/>
+    <mergeCell ref="A10:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="A40:A44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A54:A58"/>
+    <mergeCell ref="A59:A62"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="A68:A71"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="A82:A84"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="A94:A98"/>
+    <mergeCell ref="A99:A103"/>
+    <mergeCell ref="A104:A106"/>
+    <mergeCell ref="A107:A111"/>
+    <mergeCell ref="A112:A114"/>
+    <mergeCell ref="A115:A118"/>
+    <mergeCell ref="A119:A123"/>
+    <mergeCell ref="A124:A126"/>
+    <mergeCell ref="A127:A128"/>
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="B10:B27"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B31:B35"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="B40:B44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B54:B58"/>
+    <mergeCell ref="B59:B62"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="B68:B71"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="B82:B84"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="B94:B98"/>
+    <mergeCell ref="B99:B103"/>
+    <mergeCell ref="B104:B106"/>
+    <mergeCell ref="B107:B111"/>
+    <mergeCell ref="B112:B114"/>
+    <mergeCell ref="B115:B118"/>
+    <mergeCell ref="B119:B123"/>
+    <mergeCell ref="B124:B126"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="C3:C9"/>
+    <mergeCell ref="C10:C27"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="C31:C35"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="C40:C44"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="C54:C58"/>
+    <mergeCell ref="C59:C62"/>
+    <mergeCell ref="C63:C65"/>
+    <mergeCell ref="C68:C71"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="C75:C77"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="C82:C84"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="C94:C98"/>
+    <mergeCell ref="C99:C103"/>
+    <mergeCell ref="C104:C106"/>
+    <mergeCell ref="C107:C111"/>
+    <mergeCell ref="C112:C114"/>
+    <mergeCell ref="C115:C118"/>
+    <mergeCell ref="C119:C123"/>
+    <mergeCell ref="C124:C126"/>
+    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="D3:D9"/>
+    <mergeCell ref="D10:D27"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="D31:D35"/>
+    <mergeCell ref="D36:D39"/>
+    <mergeCell ref="D40:D44"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="D54:D58"/>
+    <mergeCell ref="D59:D62"/>
+    <mergeCell ref="D63:D65"/>
+    <mergeCell ref="D68:D71"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="D75:D77"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="D82:D84"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="D90:D91"/>
+    <mergeCell ref="D92:D93"/>
+    <mergeCell ref="D94:D98"/>
+    <mergeCell ref="D99:D103"/>
+    <mergeCell ref="D104:D106"/>
+    <mergeCell ref="D107:D111"/>
+    <mergeCell ref="D112:D114"/>
     <mergeCell ref="D115:D118"/>
     <mergeCell ref="D119:D123"/>
     <mergeCell ref="D124:D126"/>
@@ -4295,126 +4398,24 @@
     <mergeCell ref="E80:E81"/>
     <mergeCell ref="E82:E84"/>
     <mergeCell ref="E88:E89"/>
-    <mergeCell ref="D82:D84"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="D90:D91"/>
-    <mergeCell ref="D92:D93"/>
-    <mergeCell ref="D94:D98"/>
-    <mergeCell ref="D99:D103"/>
-    <mergeCell ref="D104:D106"/>
-    <mergeCell ref="D107:D111"/>
-    <mergeCell ref="D112:D114"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="D54:D58"/>
-    <mergeCell ref="D59:D62"/>
-    <mergeCell ref="D63:D65"/>
-    <mergeCell ref="D68:D71"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="D75:D77"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="D3:D9"/>
-    <mergeCell ref="D10:D27"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="D31:D35"/>
-    <mergeCell ref="D36:D39"/>
-    <mergeCell ref="D40:D44"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="C94:C98"/>
-    <mergeCell ref="C99:C103"/>
-    <mergeCell ref="C104:C106"/>
-    <mergeCell ref="C107:C111"/>
-    <mergeCell ref="C112:C114"/>
-    <mergeCell ref="C115:C118"/>
-    <mergeCell ref="C119:C123"/>
-    <mergeCell ref="C124:C126"/>
-    <mergeCell ref="C127:C128"/>
-    <mergeCell ref="B124:B126"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="C3:C9"/>
-    <mergeCell ref="C10:C27"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="C31:C35"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="C40:C44"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="C54:C58"/>
-    <mergeCell ref="C59:C62"/>
-    <mergeCell ref="C63:C65"/>
-    <mergeCell ref="C68:C71"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="C75:C77"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="C82:C84"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="B94:B98"/>
-    <mergeCell ref="B99:B103"/>
-    <mergeCell ref="B104:B106"/>
-    <mergeCell ref="B107:B111"/>
-    <mergeCell ref="B112:B114"/>
-    <mergeCell ref="B115:B118"/>
-    <mergeCell ref="B119:B123"/>
-    <mergeCell ref="A115:A118"/>
-    <mergeCell ref="A119:A123"/>
-    <mergeCell ref="A124:A126"/>
-    <mergeCell ref="A127:A128"/>
-    <mergeCell ref="B3:B9"/>
-    <mergeCell ref="B10:B27"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="B31:B35"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="B40:B44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B54:B58"/>
-    <mergeCell ref="B59:B62"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="B68:B71"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="B82:B84"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="A82:A84"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="A94:A98"/>
-    <mergeCell ref="A99:A103"/>
-    <mergeCell ref="A104:A106"/>
-    <mergeCell ref="A107:A111"/>
-    <mergeCell ref="A112:A114"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="A54:A58"/>
-    <mergeCell ref="A59:A62"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="A68:A71"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A75:A77"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="A3:A9"/>
-    <mergeCell ref="A10:A27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A31:A35"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="A40:A44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="E124:E126"/>
+    <mergeCell ref="E127:E128"/>
+    <mergeCell ref="F54:F58"/>
+    <mergeCell ref="F31:F35"/>
+    <mergeCell ref="F40:F44"/>
+    <mergeCell ref="F92:F93"/>
+    <mergeCell ref="F99:F103"/>
+    <mergeCell ref="F107:F111"/>
+    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="E92:E93"/>
+    <mergeCell ref="E94:E98"/>
+    <mergeCell ref="E99:E103"/>
+    <mergeCell ref="E104:E106"/>
+    <mergeCell ref="E107:E111"/>
+    <mergeCell ref="E112:E114"/>
+    <mergeCell ref="E115:E118"/>
+    <mergeCell ref="E119:E123"/>
+    <mergeCell ref="F115:F118"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4450,7 +4451,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="75">
+      <c r="A2" s="77">
         <v>7</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -4461,7 +4462,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="75"/>
+      <c r="A3" s="77"/>
       <c r="B3" s="13" t="s">
         <v>63</v>
       </c>
@@ -4481,7 +4482,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="76">
+      <c r="A7" s="79">
         <v>9</v>
       </c>
       <c r="B7" s="13" t="s">
@@ -4492,7 +4493,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="77"/>
+      <c r="A8" s="80"/>
       <c r="B8" s="13" t="s">
         <v>29</v>
       </c>
@@ -4501,7 +4502,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="78"/>
+      <c r="A9" s="81"/>
       <c r="B9" s="13" t="s">
         <v>253</v>
       </c>
@@ -4510,7 +4511,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="76">
+      <c r="A11" s="79">
         <v>10</v>
       </c>
       <c r="B11" s="13" t="s">
@@ -4521,7 +4522,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="77"/>
+      <c r="A12" s="80"/>
       <c r="B12" s="13" t="s">
         <v>14</v>
       </c>
@@ -4530,7 +4531,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="77"/>
+      <c r="A13" s="80"/>
       <c r="B13" s="13" t="s">
         <v>11</v>
       </c>
@@ -4539,7 +4540,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="77"/>
+      <c r="A14" s="80"/>
       <c r="B14" s="13" t="s">
         <v>28</v>
       </c>
@@ -4548,7 +4549,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="78"/>
+      <c r="A15" s="81"/>
       <c r="B15" s="13" t="s">
         <v>24</v>
       </c>
@@ -4557,7 +4558,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="76">
+      <c r="A17" s="79">
         <v>11</v>
       </c>
       <c r="B17" s="13" t="s">
@@ -4568,7 +4569,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" s="77"/>
+      <c r="A18" s="80"/>
       <c r="B18" s="13" t="s">
         <v>11</v>
       </c>
@@ -4577,7 +4578,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" s="77"/>
+      <c r="A19" s="80"/>
       <c r="B19" s="13" t="s">
         <v>8</v>
       </c>
@@ -4586,7 +4587,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20" s="78"/>
+      <c r="A20" s="81"/>
       <c r="B20" s="13" t="s">
         <v>24</v>
       </c>
@@ -4595,7 +4596,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A22" s="79">
+      <c r="A22" s="82">
         <v>12</v>
       </c>
       <c r="B22" s="15" t="s">
@@ -4606,7 +4607,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A23" s="80"/>
+      <c r="A23" s="76"/>
       <c r="B23" s="15" t="s">
         <v>11</v>
       </c>
@@ -4615,7 +4616,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A24" s="80"/>
+      <c r="A24" s="76"/>
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
@@ -4624,7 +4625,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A25" s="80"/>
+      <c r="A25" s="76"/>
       <c r="B25" s="15" t="s">
         <v>65</v>
       </c>
@@ -4633,7 +4634,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A26" s="80"/>
+      <c r="A26" s="76"/>
       <c r="B26" s="15" t="s">
         <v>59</v>
       </c>
@@ -4642,7 +4643,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A27" s="80"/>
+      <c r="A27" s="76"/>
       <c r="B27" s="15" t="s">
         <v>21</v>
       </c>
@@ -4651,7 +4652,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A28" s="80"/>
+      <c r="A28" s="76"/>
       <c r="B28" s="15" t="s">
         <v>42</v>
       </c>
@@ -4660,7 +4661,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A29" s="80"/>
+      <c r="A29" s="76"/>
       <c r="B29" s="15" t="s">
         <v>24</v>
       </c>
@@ -4669,7 +4670,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A30" s="80"/>
+      <c r="A30" s="76"/>
       <c r="B30" s="16" t="s">
         <v>41</v>
       </c>
@@ -4678,7 +4679,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A31" s="80"/>
+      <c r="A31" s="76"/>
       <c r="B31" s="16" t="s">
         <v>26</v>
       </c>
@@ -4687,7 +4688,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A32" s="80"/>
+      <c r="A32" s="76"/>
       <c r="B32" s="16" t="s">
         <v>27</v>
       </c>
@@ -4696,7 +4697,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A33" s="80"/>
+      <c r="A33" s="76"/>
       <c r="B33" s="16" t="s">
         <v>54</v>
       </c>
@@ -4705,7 +4706,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A34" s="80"/>
+      <c r="A34" s="76"/>
       <c r="B34" s="16" t="s">
         <v>51</v>
       </c>
@@ -4714,7 +4715,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A35" s="80"/>
+      <c r="A35" s="76"/>
       <c r="B35" s="16" t="s">
         <v>49</v>
       </c>
@@ -4731,7 +4732,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A38" s="81">
+      <c r="A38" s="75">
         <v>13</v>
       </c>
       <c r="B38" s="16" t="s">
@@ -4742,7 +4743,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A39" s="81"/>
+      <c r="A39" s="75"/>
       <c r="B39" s="15" t="s">
         <v>65</v>
       </c>
@@ -4751,7 +4752,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A40" s="81"/>
+      <c r="A40" s="75"/>
       <c r="B40" s="15" t="s">
         <v>14</v>
       </c>
@@ -4760,7 +4761,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A41" s="81"/>
+      <c r="A41" s="75"/>
       <c r="B41" s="15" t="s">
         <v>11</v>
       </c>
@@ -4769,7 +4770,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A42" s="81"/>
+      <c r="A42" s="75"/>
       <c r="B42" s="15" t="s">
         <v>8</v>
       </c>
@@ -4778,7 +4779,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A43" s="81"/>
+      <c r="A43" s="75"/>
       <c r="B43" s="15" t="s">
         <v>24</v>
       </c>
@@ -4787,7 +4788,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A44" s="81"/>
+      <c r="A44" s="75"/>
       <c r="B44" s="15" t="s">
         <v>59</v>
       </c>
@@ -4796,7 +4797,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A45" s="81"/>
+      <c r="A45" s="75"/>
       <c r="B45" s="15" t="s">
         <v>66</v>
       </c>
@@ -4805,7 +4806,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A46" s="81"/>
+      <c r="A46" s="75"/>
       <c r="B46" s="15" t="s">
         <v>48</v>
       </c>
@@ -4814,7 +4815,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A47" s="81"/>
+      <c r="A47" s="75"/>
       <c r="B47" s="15" t="s">
         <v>26</v>
       </c>
@@ -4823,7 +4824,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A48" s="81"/>
+      <c r="A48" s="75"/>
       <c r="B48" s="15" t="s">
         <v>32</v>
       </c>
@@ -4832,7 +4833,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A49" s="81"/>
+      <c r="A49" s="75"/>
       <c r="B49" s="15" t="s">
         <v>10</v>
       </c>
@@ -4841,7 +4842,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A50" s="81"/>
+      <c r="A50" s="75"/>
       <c r="B50" s="15" t="s">
         <v>67</v>
       </c>
@@ -4850,7 +4851,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A51" s="81"/>
+      <c r="A51" s="75"/>
       <c r="B51" s="15" t="s">
         <v>21</v>
       </c>
@@ -4859,7 +4860,7 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A52" s="81"/>
+      <c r="A52" s="75"/>
       <c r="B52" s="16" t="s">
         <v>19</v>
       </c>
@@ -4868,7 +4869,7 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A53" s="81"/>
+      <c r="A53" s="75"/>
       <c r="B53" s="16" t="s">
         <v>16</v>
       </c>
@@ -4877,7 +4878,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A54" s="81"/>
+      <c r="A54" s="75"/>
       <c r="B54" s="16" t="s">
         <v>54</v>
       </c>
@@ -4886,7 +4887,7 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A55" s="81"/>
+      <c r="A55" s="75"/>
       <c r="B55" s="16" t="s">
         <v>51</v>
       </c>
@@ -4895,7 +4896,7 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A56" s="81"/>
+      <c r="A56" s="75"/>
       <c r="B56" s="16" t="s">
         <v>49</v>
       </c>
@@ -4904,7 +4905,7 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A59" s="80">
+      <c r="A59" s="76">
         <v>14</v>
       </c>
       <c r="B59" s="16" t="s">
@@ -4915,7 +4916,7 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A60" s="80"/>
+      <c r="A60" s="76"/>
       <c r="B60" s="16" t="s">
         <v>27</v>
       </c>
@@ -4924,7 +4925,7 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A61" s="80"/>
+      <c r="A61" s="76"/>
       <c r="B61" s="15" t="s">
         <v>8</v>
       </c>
@@ -4933,7 +4934,7 @@
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A62" s="80"/>
+      <c r="A62" s="76"/>
       <c r="B62" s="15" t="s">
         <v>66</v>
       </c>
@@ -4942,7 +4943,7 @@
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A63" s="80"/>
+      <c r="A63" s="76"/>
       <c r="B63" s="15" t="s">
         <v>11</v>
       </c>
@@ -4951,7 +4952,7 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A64" s="80"/>
+      <c r="A64" s="76"/>
       <c r="B64" s="15" t="s">
         <v>48</v>
       </c>
@@ -4960,7 +4961,7 @@
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A65" s="80"/>
+      <c r="A65" s="76"/>
       <c r="B65" s="15" t="s">
         <v>67</v>
       </c>
@@ -4969,7 +4970,7 @@
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A66" s="80"/>
+      <c r="A66" s="76"/>
       <c r="B66" s="15" t="s">
         <v>26</v>
       </c>
@@ -4978,7 +4979,7 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A67" s="80"/>
+      <c r="A67" s="76"/>
       <c r="B67" s="15" t="s">
         <v>32</v>
       </c>
@@ -4987,7 +4988,7 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A68" s="80"/>
+      <c r="A68" s="76"/>
       <c r="B68" s="15" t="s">
         <v>10</v>
       </c>
@@ -4996,7 +4997,7 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A69" s="80"/>
+      <c r="A69" s="76"/>
       <c r="B69" s="15" t="s">
         <v>68</v>
       </c>
@@ -5005,7 +5006,7 @@
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A70" s="80"/>
+      <c r="A70" s="76"/>
       <c r="B70" s="16" t="s">
         <v>23</v>
       </c>
@@ -5014,7 +5015,7 @@
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A71" s="80"/>
+      <c r="A71" s="76"/>
       <c r="B71" s="16" t="s">
         <v>22</v>
       </c>
@@ -5023,7 +5024,7 @@
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A72" s="80"/>
+      <c r="A72" s="76"/>
       <c r="B72" s="16" t="s">
         <v>16</v>
       </c>
@@ -5032,7 +5033,7 @@
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A73" s="80"/>
+      <c r="A73" s="76"/>
       <c r="B73" s="16" t="s">
         <v>30</v>
       </c>
@@ -5041,7 +5042,7 @@
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A74" s="80"/>
+      <c r="A74" s="76"/>
       <c r="B74" s="16" t="s">
         <v>54</v>
       </c>
@@ -5050,7 +5051,7 @@
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A75" s="80"/>
+      <c r="A75" s="76"/>
       <c r="B75" s="16" t="s">
         <v>51</v>
       </c>
@@ -5059,7 +5060,7 @@
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A76" s="80"/>
+      <c r="A76" s="76"/>
       <c r="B76" s="16" t="s">
         <v>49</v>
       </c>
@@ -5068,7 +5069,7 @@
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A77" s="80"/>
+      <c r="A77" s="76"/>
       <c r="B77" s="16" t="s">
         <v>34</v>
       </c>
@@ -5077,7 +5078,7 @@
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A78" s="80"/>
+      <c r="A78" s="76"/>
       <c r="B78" s="16" t="s">
         <v>12</v>
       </c>
@@ -5086,7 +5087,7 @@
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A80" s="75">
+      <c r="A80" s="77">
         <v>15</v>
       </c>
       <c r="B80" s="16" t="s">
@@ -5097,7 +5098,7 @@
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A81" s="75"/>
+      <c r="A81" s="77"/>
       <c r="B81" s="16" t="s">
         <v>66</v>
       </c>
@@ -5106,7 +5107,7 @@
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A82" s="75"/>
+      <c r="A82" s="77"/>
       <c r="B82" s="16" t="s">
         <v>8</v>
       </c>
@@ -5115,7 +5116,7 @@
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A83" s="82"/>
+      <c r="A83" s="78"/>
       <c r="B83" s="15" t="s">
         <v>70</v>
       </c>
@@ -5124,7 +5125,7 @@
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A84" s="82"/>
+      <c r="A84" s="78"/>
       <c r="B84" s="16" t="s">
         <v>33</v>
       </c>
@@ -5133,7 +5134,7 @@
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A85" s="82"/>
+      <c r="A85" s="78"/>
       <c r="B85" s="15" t="s">
         <v>48</v>
       </c>
@@ -5142,7 +5143,7 @@
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A86" s="82"/>
+      <c r="A86" s="78"/>
       <c r="B86" s="15" t="s">
         <v>71</v>
       </c>
@@ -5151,7 +5152,7 @@
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A87" s="82"/>
+      <c r="A87" s="78"/>
       <c r="B87" s="15" t="s">
         <v>10</v>
       </c>
@@ -5160,7 +5161,7 @@
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A88" s="82"/>
+      <c r="A88" s="78"/>
       <c r="B88" s="15" t="s">
         <v>67</v>
       </c>
@@ -5169,7 +5170,7 @@
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A89" s="82"/>
+      <c r="A89" s="78"/>
       <c r="B89" s="15" t="s">
         <v>26</v>
       </c>
@@ -5178,7 +5179,7 @@
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A90" s="82"/>
+      <c r="A90" s="78"/>
       <c r="B90" s="15" t="s">
         <v>68</v>
       </c>
@@ -5187,7 +5188,7 @@
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A91" s="82"/>
+      <c r="A91" s="78"/>
       <c r="B91" s="16" t="s">
         <v>22</v>
       </c>
@@ -5196,7 +5197,7 @@
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A92" s="82"/>
+      <c r="A92" s="78"/>
       <c r="B92" s="16" t="s">
         <v>35</v>
       </c>
@@ -5205,7 +5206,7 @@
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A93" s="75"/>
+      <c r="A93" s="77"/>
       <c r="B93" s="16" t="s">
         <v>50</v>
       </c>
@@ -5214,7 +5215,7 @@
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A94" s="75"/>
+      <c r="A94" s="77"/>
       <c r="B94" s="16" t="s">
         <v>30</v>
       </c>
@@ -5223,7 +5224,7 @@
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A95" s="75"/>
+      <c r="A95" s="77"/>
       <c r="B95" s="16" t="s">
         <v>54</v>
       </c>
@@ -5232,7 +5233,7 @@
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A96" s="75"/>
+      <c r="A96" s="77"/>
       <c r="B96" s="16" t="s">
         <v>51</v>
       </c>
@@ -5241,7 +5242,7 @@
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A97" s="82"/>
+      <c r="A97" s="78"/>
       <c r="B97" s="16" t="s">
         <v>49</v>
       </c>
@@ -5250,7 +5251,7 @@
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A98" s="82"/>
+      <c r="A98" s="78"/>
       <c r="B98" s="16" t="s">
         <v>34</v>
       </c>
@@ -5259,7 +5260,7 @@
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A99" s="75"/>
+      <c r="A99" s="77"/>
       <c r="B99" s="16" t="s">
         <v>12</v>
       </c>
@@ -5268,7 +5269,7 @@
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A102" s="81">
+      <c r="A102" s="75">
         <v>16</v>
       </c>
       <c r="B102" s="15" t="s">
@@ -5279,7 +5280,7 @@
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A103" s="81"/>
+      <c r="A103" s="75"/>
       <c r="B103" s="15" t="s">
         <v>70</v>
       </c>
@@ -5288,7 +5289,7 @@
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A104" s="81"/>
+      <c r="A104" s="75"/>
       <c r="B104" s="15" t="s">
         <v>48</v>
       </c>
@@ -5297,7 +5298,7 @@
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A105" s="81"/>
+      <c r="A105" s="75"/>
       <c r="B105" s="15" t="s">
         <v>68</v>
       </c>
@@ -5306,7 +5307,7 @@
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A106" s="81"/>
+      <c r="A106" s="75"/>
       <c r="B106" s="16" t="s">
         <v>35</v>
       </c>
@@ -5315,7 +5316,7 @@
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A107" s="81"/>
+      <c r="A107" s="75"/>
       <c r="B107" s="16" t="s">
         <v>30</v>
       </c>
@@ -5324,7 +5325,7 @@
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A108" s="81"/>
+      <c r="A108" s="75"/>
       <c r="B108" s="16" t="s">
         <v>51</v>
       </c>
@@ -5333,7 +5334,7 @@
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A109" s="81"/>
+      <c r="A109" s="75"/>
       <c r="B109" s="16" t="s">
         <v>49</v>
       </c>
@@ -5342,7 +5343,7 @@
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A110" s="81"/>
+      <c r="A110" s="75"/>
       <c r="B110" s="16" t="s">
         <v>69</v>
       </c>
@@ -5351,7 +5352,7 @@
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A111" s="81"/>
+      <c r="A111" s="75"/>
       <c r="B111" s="16" t="s">
         <v>34</v>
       </c>
@@ -5360,7 +5361,7 @@
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A112" s="81"/>
+      <c r="A112" s="75"/>
       <c r="B112" s="16" t="s">
         <v>12</v>
       </c>
@@ -5369,7 +5370,7 @@
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A114" s="75">
+      <c r="A114" s="77">
         <v>17</v>
       </c>
       <c r="B114" s="16" t="s">
@@ -5380,7 +5381,7 @@
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A115" s="75"/>
+      <c r="A115" s="77"/>
       <c r="B115" s="13" t="s">
         <v>48</v>
       </c>
@@ -5389,7 +5390,7 @@
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A116" s="75"/>
+      <c r="A116" s="77"/>
       <c r="B116" s="16" t="s">
         <v>68</v>
       </c>
@@ -5398,7 +5399,7 @@
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A117" s="75"/>
+      <c r="A117" s="77"/>
       <c r="B117" s="13" t="s">
         <v>71</v>
       </c>
@@ -5407,7 +5408,7 @@
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A118" s="75"/>
+      <c r="A118" s="77"/>
       <c r="B118" s="16" t="s">
         <v>69</v>
       </c>
@@ -5416,7 +5417,7 @@
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A119" s="75"/>
+      <c r="A119" s="77"/>
       <c r="B119" s="16" t="s">
         <v>12</v>
       </c>
@@ -5426,16 +5427,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A22:A35"/>
     <mergeCell ref="A38:A56"/>
     <mergeCell ref="A59:A78"/>
     <mergeCell ref="A80:A99"/>
     <mergeCell ref="A102:A112"/>
     <mergeCell ref="A114:A119"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="A22:A35"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5447,8 +5448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z281"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="D115" sqref="D115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -5502,7 +5503,7 @@
         <v>19769</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
@@ -5538,7 +5539,7 @@
         <v>607</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
@@ -5574,7 +5575,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
@@ -9570,7 +9571,7 @@
         <v>156</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>449</v>
+        <v>520</v>
       </c>
       <c r="E115" s="10"/>
       <c r="F115" s="10"/>
@@ -9606,7 +9607,7 @@
         <v>1237</v>
       </c>
       <c r="D116" s="10" t="s">
-        <v>449</v>
+        <v>259</v>
       </c>
       <c r="E116" s="10"/>
       <c r="F116" s="10"/>
@@ -9636,13 +9637,13 @@
         <v>190111</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C117" s="9">
         <v>1723</v>
       </c>
       <c r="D117" s="10" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E117" s="10"/>
       <c r="F117" s="10"/>
@@ -9714,7 +9715,7 @@
         <v>1034</v>
       </c>
       <c r="D119" s="10" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E119" s="10"/>
       <c r="F119" s="10"/>
@@ -9750,7 +9751,7 @@
         <v>311</v>
       </c>
       <c r="D120" s="10" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E120" s="10"/>
       <c r="F120" s="10"/>
@@ -9786,7 +9787,7 @@
         <v>2461</v>
       </c>
       <c r="D121" s="10" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E121" s="10"/>
       <c r="F121" s="10"/>
@@ -9822,7 +9823,7 @@
         <v>950</v>
       </c>
       <c r="D122" s="10" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E122" s="10"/>
       <c r="F122" s="10"/>
@@ -9858,7 +9859,7 @@
         <v>4963</v>
       </c>
       <c r="D123" s="10" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E123" s="10"/>
       <c r="F123" s="10"/>
@@ -9930,7 +9931,7 @@
         <v>377</v>
       </c>
       <c r="D125" s="10" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E125" s="10"/>
       <c r="F125" s="10"/>
@@ -9996,13 +9997,13 @@
         <v>190403</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C127" s="9">
         <v>248</v>
       </c>
       <c r="D127" s="10" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E127" s="10"/>
       <c r="F127" s="10"/>
@@ -10038,7 +10039,7 @@
         <v>100</v>
       </c>
       <c r="D128" s="10" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E128" s="10"/>
       <c r="F128" s="10"/>
@@ -10104,13 +10105,13 @@
         <v>200101</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C130" s="9">
         <v>1000</v>
       </c>
       <c r="D130" s="10" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E130" s="10"/>
       <c r="F130" s="10"/>
@@ -10182,7 +10183,7 @@
         <v>3339</v>
       </c>
       <c r="D132" s="10" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E132" s="10"/>
       <c r="F132" s="10"/>
@@ -10218,7 +10219,7 @@
         <v>375</v>
       </c>
       <c r="D133" s="10" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E133" s="10"/>
       <c r="F133" s="10"/>
@@ -10248,13 +10249,13 @@
         <v>200105</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C134" s="9">
         <v>133</v>
       </c>
       <c r="D134" s="10" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E134" s="10"/>
       <c r="F134" s="10"/>
@@ -10290,7 +10291,7 @@
         <v>2243</v>
       </c>
       <c r="D135" s="10" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E135" s="10"/>
       <c r="F135" s="10"/>
@@ -10326,7 +10327,7 @@
         <v>685</v>
       </c>
       <c r="D136" s="10" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E136" s="10"/>
       <c r="F136" s="10"/>
@@ -10434,7 +10435,7 @@
         <v>319</v>
       </c>
       <c r="D139" s="10" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E139" s="10"/>
       <c r="F139" s="10"/>
@@ -10470,7 +10471,7 @@
         <v>2839</v>
       </c>
       <c r="D140" s="10" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E140" s="10"/>
       <c r="F140" s="10"/>
@@ -10506,7 +10507,7 @@
         <v>841</v>
       </c>
       <c r="D141" s="10" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E141" s="10"/>
       <c r="F141" s="10"/>
@@ -10542,7 +10543,7 @@
         <v>748</v>
       </c>
       <c r="D142" s="10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E142" s="10"/>
       <c r="F142" s="10"/>
@@ -10578,7 +10579,7 @@
         <v>1233</v>
       </c>
       <c r="D143" s="10" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E143" s="10"/>
       <c r="F143" s="10"/>
@@ -10608,13 +10609,13 @@
         <v>210104</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C144" s="9">
         <v>561</v>
       </c>
       <c r="D144" s="10" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E144" s="10"/>
       <c r="F144" s="10"/>
@@ -10644,13 +10645,13 @@
         <v>210105</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C145" s="9">
         <v>530</v>
       </c>
       <c r="D145" s="10" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E145" s="10"/>
       <c r="F145" s="10"/>
@@ -10686,7 +10687,7 @@
         <v>4024</v>
       </c>
       <c r="D146" s="10" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E146" s="10"/>
       <c r="F146" s="10"/>
@@ -10716,13 +10717,13 @@
         <v>210202</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C147" s="9">
         <v>748</v>
       </c>
       <c r="D147" s="10" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E147" s="10"/>
       <c r="F147" s="10"/>
@@ -10758,7 +10759,7 @@
         <v>775</v>
       </c>
       <c r="D148" s="10" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E148" s="10"/>
       <c r="F148" s="10"/>
@@ -10794,7 +10795,7 @@
         <v>4198</v>
       </c>
       <c r="D149" s="10" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E149" s="10"/>
       <c r="F149" s="10"/>
@@ -10830,7 +10831,7 @@
         <v>110</v>
       </c>
       <c r="D150" s="10" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E150" s="10"/>
       <c r="F150" s="10"/>
@@ -10866,7 +10867,7 @@
         <v>320</v>
       </c>
       <c r="D151" s="10" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E151" s="10"/>
       <c r="F151" s="10"/>
@@ -10902,7 +10903,7 @@
         <v>2815</v>
       </c>
       <c r="D152" s="10" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E152" s="10"/>
       <c r="F152" s="10"/>
@@ -10974,7 +10975,7 @@
         <v>6490</v>
       </c>
       <c r="D154" s="10" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E154" s="10"/>
       <c r="F154" s="10"/>
@@ -11004,13 +11005,13 @@
         <v>210217</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C155" s="9">
         <v>8832</v>
       </c>
       <c r="D155" s="10" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E155" s="10"/>
       <c r="F155" s="10"/>
@@ -11040,13 +11041,13 @@
         <v>210218</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C156" s="9">
         <v>353</v>
       </c>
       <c r="D156" s="10" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E156" s="10"/>
       <c r="F156" s="10"/>
@@ -11154,7 +11155,7 @@
         <v>1628</v>
       </c>
       <c r="D159" s="10" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E159" s="43"/>
       <c r="F159" s="43"/>
@@ -11184,13 +11185,13 @@
         <v>210303</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C160" s="9">
         <v>2931</v>
       </c>
       <c r="D160" s="10" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E160" s="10"/>
       <c r="F160" s="10"/>
@@ -11226,7 +11227,7 @@
         <v>325</v>
       </c>
       <c r="D161" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E161" s="10"/>
       <c r="F161" s="10"/>
@@ -11262,7 +11263,7 @@
         <v>305</v>
       </c>
       <c r="D162" s="10" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E162" s="43"/>
       <c r="F162" s="43"/>
@@ -11334,7 +11335,7 @@
         <v>8363</v>
       </c>
       <c r="D164" s="10" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E164" s="10"/>
       <c r="F164" s="10"/>
@@ -11370,7 +11371,7 @@
         <v>1085</v>
       </c>
       <c r="D165" s="10" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E165" s="10"/>
       <c r="F165" s="10"/>
@@ -11406,7 +11407,7 @@
         <v>3742</v>
       </c>
       <c r="D166" s="10" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E166" s="10"/>
       <c r="F166" s="10"/>
@@ -11586,7 +11587,7 @@
         <v>202</v>
       </c>
       <c r="D171" s="10" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E171" s="10"/>
       <c r="F171" s="10"/>
@@ -11658,7 +11659,7 @@
         <v>30</v>
       </c>
       <c r="D173" s="10" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E173" s="10"/>
       <c r="F173" s="10"/>
@@ -11730,7 +11731,7 @@
         <v>4948</v>
       </c>
       <c r="D175" s="10" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E175" s="10"/>
       <c r="F175" s="10"/>
@@ -11766,7 +11767,7 @@
         <v>3050</v>
       </c>
       <c r="D176" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E176" s="10"/>
       <c r="F176" s="10"/>
@@ -11796,13 +11797,13 @@
         <v>230202</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C177" s="9">
         <v>585</v>
       </c>
       <c r="D177" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E177" s="10"/>
       <c r="F177" s="10"/>
@@ -11838,7 +11839,7 @@
         <v>789</v>
       </c>
       <c r="D178" s="10" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E178" s="10"/>
       <c r="F178" s="10"/>
@@ -11874,7 +11875,7 @@
         <v>758</v>
       </c>
       <c r="D179" s="10" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E179" s="10"/>
       <c r="F179" s="10"/>
@@ -11910,7 +11911,7 @@
         <v>176</v>
       </c>
       <c r="D180" s="10" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E180" s="10"/>
       <c r="F180" s="10"/>
@@ -11946,7 +11947,7 @@
         <v>64</v>
       </c>
       <c r="D181" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E181" s="10"/>
       <c r="F181" s="10"/>
@@ -11982,7 +11983,7 @@
         <v>975</v>
       </c>
       <c r="D182" s="10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E182" s="10"/>
       <c r="F182" s="10"/>
@@ -12018,7 +12019,7 @@
         <v>530</v>
       </c>
       <c r="D183" s="10" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E183" s="10"/>
       <c r="F183" s="10"/>
@@ -12090,7 +12091,7 @@
         <v>3</v>
       </c>
       <c r="D185" s="10" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E185" s="10"/>
       <c r="F185" s="10"/>
@@ -12228,13 +12229,13 @@
         <v>230218</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C189" s="9">
         <v>131</v>
       </c>
       <c r="D189" s="10" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E189" s="10"/>
       <c r="F189" s="10"/>
@@ -12306,7 +12307,7 @@
         <v>99</v>
       </c>
       <c r="D191" s="10" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E191" s="10"/>
       <c r="F191" s="10"/>
@@ -12342,7 +12343,7 @@
         <v>1906</v>
       </c>
       <c r="D192" s="10" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E192" s="10"/>
       <c r="F192" s="10"/>
@@ -12414,7 +12415,7 @@
         <v>2865</v>
       </c>
       <c r="D194" s="10" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E194" s="10"/>
       <c r="F194" s="10"/>
@@ -12444,13 +12445,13 @@
         <v>250100</v>
       </c>
       <c r="B195" s="8" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C195" s="9">
         <v>345</v>
       </c>
       <c r="D195" s="10" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E195" s="10"/>
       <c r="F195" s="10"/>
@@ -12486,7 +12487,7 @@
         <v>3201</v>
       </c>
       <c r="D196" s="10" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E196" s="10"/>
       <c r="F196" s="10"/>
